--- a/medicine/Enfance/Jean-Baptiste_Baronian/Jean-Baptiste_Baronian.xlsx
+++ b/medicine/Enfance/Jean-Baptiste_Baronian/Jean-Baptiste_Baronian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Baronian, de son vrai nom Joseph Lous Baronian, né le 29 avril 1942 de parents arméniens, est un écrivain belge de langue française. Il est également connu sous de nombreux pseudonymes : Alexandre Lous pour des romans policiers, Jeanne Voisins, ou encore Jean-Marie Méline pour des romans d'amour, et Alexandre Bergonian.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Romancier, auteur de nouvelles fantastiques, d’anthologies et de livres pour enfants, critique et essayiste, il partage sa vie entre Bruxelles et Paris. Il travaille de nombreuses années dans l'édition, notamment comme directeur de collection chez Marabout, à la Librairie des Champs-Élysées, au Livre de poche, chez Hermé, au Fleuve noir et chez NéO.
 Écrivain prolifique, il publie une cinquantaine d'ouvrages, parmi lesquels Une bibliothèque excentrique, paru en 2004. Critique littéraire, il signe des articles pour des hebdomadaires belges et au Magazine littéraire.
 Il est membre de l'Académie royale de langue et de littérature françaises, de même que président des Amis de Georges Simenon, association créée en 1987, établie à Bruxelles, qui publie périodiquement Les Cahiers Simenon. Il est actuellement[Depuis quand ?] membre du jury du Prix Nocturne.
-Jean-Baptiste Baronian apparait en tant que personnage dans le roman Vogelsang ou la mélancolie du vampire (2012) de Christopher Gérard[1].
+Jean-Baptiste Baronian apparait en tant que personnage dans le roman Vogelsang ou la mélancolie du vampire (2012) de Christopher Gérard.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L'un l'autre (Morel, 1972)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'un l'autre (Morel, 1972)
 Autour de France (Robert Laffont, 1974)
 Scènes de la ville obscure (Robert Laffont, 1977)
 Le Diable Vauvert (Robert Laffont, 1979), roman fantastique
@@ -569,36 +588,274 @@
 Meurtre à Waterloo (Luc Pire, 2011) roman policier
 Dans le miroirs de Rosalie (Éditions de Fallois, 2011)
 L'Enfer d'une saison (Paris, Éditions de Fallois, coll. "L'Âge d'homme", 2013)
-Le petit Arménien (Pierre Guillaume de Roux, 2018)
-Romans policiers signés Alexandre Lous
-Matricide (Plon, 1981 ; réédition, Clancier-Guénaud, coll. « Polars » no 5, 1981 ; réédition, Labor/Espace Nord no 112, 1996)
+Le petit Arménien (Pierre Guillaume de Roux, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers signés Alexandre Lous</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Matricide (Plon, 1981 ; réédition, Clancier-Guénaud, coll. « Polars » no 5, 1981 ; réédition, Labor/Espace Nord no 112, 1996)
 La Nuit du pigeon (Fleuve noir, coll. « Engrenage » no 41, 1982)
 Meurtres sans mémoire (Denoël, coll. « Sueurs froides » no 22, 1983)
 Tableaux noirs (Plon, 1984 ; réédition, Clancier-Guénaud, coll. « Polars » no 15, 1984)
 Jugement dernier (Denoël, coll. « Sueurs froides », 1984)
-Rase Campagne (Métailié, coll. « Troubles », 1996)
-Romans d'amour signés Jeanne Voisins
-Un château en Bavière (Plon, coll. « Cristal » no 5, 1980)
+Rase Campagne (Métailié, coll. « Troubles », 1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans d'amour signés Jeanne Voisins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un château en Bavière (Plon, coll. « Cristal » no 5, 1980)
 À l'ombre d'un fjord (Plon, coll. « Cristal » no 22, 1980)
 J'ai murmuré ton nom (Plon, coll. « Cristal » no 43, 1981)
 Le Portrait dérobé (Plon, coll. « Cristal » no 62, 1981)
-La Sonate de l'amour (Presses de la Cité, coll. « Turquoise » no 128, 1981)
-Roman d'amour signé Jean-Marie Méline
-La Malédiction de la chapelle (Presses de la Cité, coll. « Turquoise sortilèges » no 154, 1981)
-Recueils de nouvelles
-Le Grand Chalababa (Éditions Opta, coll. « Anti-mondes » no 33, 1977), textes de science-fiction
+La Sonate de l'amour (Presses de la Cité, coll. « Turquoise » no 128, 1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman d'amour signé Jean-Marie Méline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Malédiction de la chapelle (Presses de la Cité, coll. « Turquoise sortilèges » no 154, 1981)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Grand Chalababa (Éditions Opta, coll. « Anti-mondes » no 33, 1977), textes de science-fiction
 Parmi tant d'autres crimes (Belles Lettres, coll. « Le Cabinet noir » no 27 1999)
 Histoires fantômes (La Renaissance du livre, 2003)
 Neuf petits crimes très ordinaires (Le Grand Miroir, 2006)
-On ne voit pas la nuit tomber (Éditions de Fallois/L'Âge d'homme, 2014)
-Nouvelle
-Les Adorateurs de Sil (1995)
-Concupiscent (Bruxelles, Lamiroy, Opuscule #191, 2021)
-Poésie
-La Chair et le Sang (Bruxelles, Leclerc, 1964)
-Anastrophes au Bon Dieu (Bruxelles, Lamiroy, 2021)
-Essais
-Un nouveau fantastique : esquisses sur les métamorphoses d'un genre littéraire (L’Âge d'Homme, 1977)
+On ne voit pas la nuit tomber (Éditions de Fallois/L'Âge d'homme, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Adorateurs de Sil (1995)
+Concupiscent (Bruxelles, Lamiroy, Opuscule #191, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Chair et le Sang (Bruxelles, Leclerc, 1964)
+Anastrophes au Bon Dieu (Bruxelles, Lamiroy, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Un nouveau fantastique : esquisses sur les métamorphoses d'un genre littéraire (L’Âge d'Homme, 1977)
 Panorama de la littérature fantastique de langue française (Stock, 1978)
 Jean Ray : l'archange fantastique (Librairie des Champs Elysées, 1981)
 La Légende du vin (Le Temps qu'il fait, 1995)
@@ -607,9 +864,43 @@
 Simenon ou le roman gris : Neuf études sentimentales (Éditions Textuel, 2002)
 Une bibliothèque excentrique (Éditions des Cendres, 2002 ; réédition, Le Temps qu'il fait, 2004)
 Baudelaire au pays des Singes (Pierre-Guillaume de Roux, 2017)
-Le Père Brown, détective céleste (Éditions Lamiroy, 2022 ; L'article #21)
-Anthologies
-Récits de science-fiction (Gérard, Marabout, 1973 ; réédition, coll. « Bibliothèque Marabout » no 523, 1975), récits de J.-H. Rosny aîné
+Le Père Brown, détective céleste (Éditions Lamiroy, 2022 ; L'article #21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Anthologies</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Récits de science-fiction (Gérard, Marabout, 1973 ; réédition, coll. « Bibliothèque Marabout » no 523, 1975), récits de J.-H. Rosny aîné
 La France fantastique de Balzac à Pierre Louÿs (Gérard, Marabout, 1973)
 La Belgique fantastique avant et après Jean Ray (Gérard, Marabout, 1975) (Éditions Jacques Antoine, 1984)
 Treize histoires d'objets maléfiques (Marabout, 1975)
@@ -628,14 +919,89 @@
 Le Démon de février (Fleuve Noir, 1998), récits de Gérard Prévot
 L'Invitée de Lorelei (Fleuve Noir, 1999), récits de Gérard Prévot
 Noir Scénar (Belles Lettres, 2002)
-Miroirs obscurs : treize contes fantastiques (Labor, 2003)
-Ouvrages de littérature d'enfance et de jeunesse
-Série Rouletapir
-Rouletapir, le petit détective (Grasset, 1996)
+Miroirs obscurs : treize contes fantastiques (Labor, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Rouletapir</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Rouletapir, le petit détective (Grasset, 1996)
 La Croisière de Rouletapir (Grasset, 1997)
-Rouletapir et l'Orient-Express (Grasset, 1996)
-Autres ouvrages
-La Bibliothèque de feu : contes, Bruxelles, La Pierre d'Alun, 1984. Illustrations de Camille De Taeye.
+Rouletapir et l'Orient-Express (Grasset, 1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La Bibliothèque de feu : contes, Bruxelles, La Pierre d'Alun, 1984. Illustrations de Camille De Taeye.
 Lord John (Hermé, 1986 ; réédition, Labor, coll. « Espace nord junior » no 2 1986 et 2001)
 Une couronne pour Guillaume (Namur, Mijade, 1996)
 Mémoire d'éléphant (Gallimard jeunesse, 1997)
@@ -659,14 +1025,48 @@
 Un amour de petite sœur (Gallimard jeunesse, 2005)  (ISBN 2-07-055084-2)
 Croc-Basile et Croc-Odile (Éditions Circonflexe, 2006)  (ISBN 978-2-87-833401-2)
 Octave Mirbeau vient à Bruxelles, septembre 2012
-Le Paris de Simenon (éditions Alexandrines, 2017)
-Autres publications
-Autour de France (Robert Laffont, 1974)
+Le Paris de Simenon (éditions Alexandrines, 2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Baronian</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Autour de France (Robert Laffont, 1974)
 La Dame et la Licorne (Paris, Réunion des musées nationaux, 2001)
 La Bibliophilie (L'Âge d'homme, 2006)
-Baudelaire (Gallimard, coll. « Folio biographies » no 19, 2006)[2]
+Baudelaire (Gallimard, coll. « Folio biographies » no 19, 2006)
 Verlaine (Gallimard, coll. « Folio biographies » no 40, 2008)
-Rimbaud (Gallimard, coll. « Folio biographies » no 58, 2009) - Prix de littérature 2011 du parlement de la Fédération Wallonie-Bruxelles[3]
+Rimbaud (Gallimard, coll. « Folio biographies » no 58, 2009) - Prix de littérature 2011 du parlement de la Fédération Wallonie-Bruxelles
 Dictionnaire amoureux de la Belgique (Plon, 2015)
 Dictionnaire de la gastronomie et de la cuisine belges (Rouerge, 2019)</t>
         </is>
